--- a/public/sampleExcel/stock_count_sample.xlsx
+++ b/public/sampleExcel/stock_count_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prodsystem\public\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961CE8B6-BCCE-498F-965F-B54D37258455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A915D6-A4A6-45B6-AD50-12C3885E0152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>product_code</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>counted_quantity</t>
+  </si>
+  <si>
+    <t>unit_price</t>
   </si>
 </sst>
 </file>
@@ -80,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,27 +366,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="A825" sqref="A2:C825"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/public/sampleExcel/stock_count_sample.xlsx
+++ b/public/sampleExcel/stock_count_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prodsystem\public\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A915D6-A4A6-45B6-AD50-12C3885E0152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0F5DDC-D26E-4478-B219-76353E87220E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>product_code</t>
+    <t>unit_price</t>
   </si>
   <si>
-    <t>remark</t>
+    <t>item_code</t>
   </si>
   <si>
-    <t>counted_quantity</t>
+    <t>quantity</t>
   </si>
   <si>
-    <t>unit_price</t>
+    <t>remarks</t>
   </si>
 </sst>
 </file>
@@ -369,29 +369,29 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
